--- a/techniqo/data_new_ticker/TTKPRESTIG.xlsx
+++ b/techniqo/data_new_ticker/TTKPRESTIG.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1006"/>
+  <dimension ref="A1:G1008"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35596,6 +35596,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1007">
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1007" t="n">
+        <v>6093.8</v>
+      </c>
+      <c r="C1007" t="n">
+        <v>6575</v>
+      </c>
+      <c r="D1007" t="n">
+        <v>6017.1</v>
+      </c>
+      <c r="E1007" t="n">
+        <v>6308.2</v>
+      </c>
+      <c r="F1007" t="n">
+        <v>28269</v>
+      </c>
+      <c r="G1007" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1008" t="n">
+        <v>6390</v>
+      </c>
+      <c r="C1008" t="n">
+        <v>6457.95</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>6125</v>
+      </c>
+      <c r="E1008" t="n">
+        <v>6233.6</v>
+      </c>
+      <c r="F1008" t="n">
+        <v>7067</v>
+      </c>
+      <c r="G1008" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/TTKPRESTIG.xlsx
+++ b/techniqo/data_new_ticker/TTKPRESTIG.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1008"/>
+  <dimension ref="A1:G1010"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35646,6 +35646,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1009">
+      <c r="A1009" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1009" t="n">
+        <v>6200.05</v>
+      </c>
+      <c r="C1009" t="n">
+        <v>6333.6</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>6120</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>6162.6</v>
+      </c>
+      <c r="F1009" t="n">
+        <v>2280</v>
+      </c>
+      <c r="G1009" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1010" t="n">
+        <v>6180</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>6350</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>6155</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>6305.45</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>6125</v>
+      </c>
+      <c r="G1010" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
